--- a/BackTest/2020-01-23 BackTest DAD.xlsx
+++ b/BackTest/2020-01-23 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>315539.359708651</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>398251.650296754</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>464615.318154036</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>507811.9747679749</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>544737.3829679748</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>544737.3829679748</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>554431.1546679748</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>576815.2676914247</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>576815.2676914247</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>592235.0035914247</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>638358.9318730567</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>640176.6266730567</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>640186.6266730567</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>636811.4335730567</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>636922.2489730567</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>631270.9376730567</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>631307.7245730567</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>633631.5998730566</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>635997.5660730567</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>637809.9243730566</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>624473.8863730567</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>624561.0414730567</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>623905.3776730567</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>620117.7619730567</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>609961.0848730567</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>608768.1982068038</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>598168.0612068038</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>599116.3767068038</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>599116.3767068038</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>600839.4152099658</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>594567.312409966</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>599487.4358099661</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>606877.7158099661</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>564356.967409966</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>564356.967409966</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>564359.467409966</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>564359.467409966</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>557322.983109966</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>557460.231009966</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>562988.864309966</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>562165.9367099659</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>560782.6402099659</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>560785.1402099659</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>560590.2522099658</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>563054.5698099658</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>563054.5698099658</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>563052.0698099658</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>562021.6562099658</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>561946.1562099658</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>533740.5020099658</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>523193.8937099658</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>499909.6167099658</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>503151.3638099658</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>505158.5193099658</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>493657.8317099658</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>473048.9079099658</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>452866.1611099658</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>470919.0359099658</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>470919.0359099658</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>458193.9884099658</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>441133.8564099658</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>441136.4564099658</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>445303.1704099657</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>445603.9445099657</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>447558.2263099657</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>462527.2412472957</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>462494.4812472957</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>459391.8215472957</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>459525.6127472956</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>456738.1652472956</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>453755.9867472957</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>453805.0304472956</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>453805.0304472956</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>453635.9997472956</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>481345.1158448927</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>476650.6681448927</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>476650.6681448927</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>461352.8906021347</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>462609.8417021347</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>459549.4909021347</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>438415.4196021347</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>463281.0370021347</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>463224.6817021347</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>461863.1370021347</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>460782.1474021347</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>467786.3688021347</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>465343.3114021347</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>458171.7141021347</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>444636.3231021347</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>450481.1200021347</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>457315.1142436047</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>454993.3029436046</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>464437.0070436047</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>464411.0329436047</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>463707.6611436047</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>463725.6490436047</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>432868.1476436047</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>412216.6025436047</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>412302.1915436047</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>411731.1456436046</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -24475,10 +24475,14 @@
         <v>45006.3459998882</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>174</v>
+      </c>
+      <c r="J730" t="n">
+        <v>174</v>
+      </c>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
@@ -24508,11 +24512,19 @@
         <v>46251.63869988819</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="J731" t="n">
+        <v>174</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24541,11 +24553,19 @@
         <v>46251.63869988819</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>180</v>
+      </c>
+      <c r="J732" t="n">
+        <v>174</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24574,11 +24594,19 @@
         <v>46165.07049988819</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>180</v>
+      </c>
+      <c r="J733" t="n">
+        <v>174</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +24635,19 @@
         <v>45175.99139988819</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="J734" t="n">
+        <v>174</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24640,11 +24676,19 @@
         <v>42975.91779988819</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>175</v>
+      </c>
+      <c r="J735" t="n">
+        <v>174</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24673,11 +24717,19 @@
         <v>42975.91779988819</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="J736" t="n">
+        <v>174</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24706,11 +24758,19 @@
         <v>54738.44299988818</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="J737" t="n">
+        <v>174</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24739,11 +24799,19 @@
         <v>59855.06610339518</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="J738" t="n">
+        <v>174</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24772,11 +24840,19 @@
         <v>57854.88070339518</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="J739" t="n">
+        <v>174</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,11 +24881,19 @@
         <v>69194.15499988818</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="J740" t="n">
+        <v>174</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24841,8 +24925,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>174</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24874,8 +24964,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>174</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -24907,8 +25003,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>174</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -24940,8 +25042,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>174</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -24973,8 +25081,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>174</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25006,8 +25120,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>174</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25039,8 +25159,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>174</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25072,8 +25198,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>174</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25105,8 +25237,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>174</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25138,8 +25276,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>174</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25171,8 +25315,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>174</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25204,8 +25354,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>174</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25237,8 +25393,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>174</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25267,11 +25429,19 @@
         <v>64480.55559988818</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>174</v>
+      </c>
+      <c r="J754" t="n">
+        <v>174</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25300,11 +25470,19 @@
         <v>65025.83329988818</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="J755" t="n">
+        <v>174</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25333,11 +25511,19 @@
         <v>65052.50989988818</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="J756" t="n">
+        <v>174</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25366,11 +25552,19 @@
         <v>65043.17469988818</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="J757" t="n">
+        <v>174</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25399,11 +25593,19 @@
         <v>67838.03216215718</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="J758" t="n">
+        <v>174</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25435,8 +25637,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>174</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +25673,19 @@
         <v>62507.15128638318</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>176</v>
+      </c>
+      <c r="J760" t="n">
+        <v>174</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25501,8 +25717,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>174</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25534,8 +25756,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>174</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25792,19 @@
         <v>40734.01248638318</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="J763" t="n">
+        <v>174</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25597,11 +25833,19 @@
         <v>40971.15718638318</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="J764" t="n">
+        <v>174</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25630,11 +25874,19 @@
         <v>39438.18598638318</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>175</v>
+      </c>
+      <c r="J765" t="n">
+        <v>174</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25663,11 +25915,19 @@
         <v>34438.18598638318</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="J766" t="n">
+        <v>174</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25696,11 +25956,19 @@
         <v>34448.18598638318</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="J767" t="n">
+        <v>174</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25729,11 +25997,19 @@
         <v>33509.61838638318</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="J768" t="n">
+        <v>174</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25762,11 +26038,19 @@
         <v>33960.61838638318</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>174</v>
+      </c>
+      <c r="J769" t="n">
+        <v>174</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +26079,19 @@
         <v>31642.99498638318</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>175</v>
+      </c>
+      <c r="J770" t="n">
+        <v>174</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25828,11 +26120,19 @@
         <v>31648.90258638317</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>174</v>
+      </c>
+      <c r="J771" t="n">
+        <v>174</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +26161,19 @@
         <v>31943.33198638317</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="J772" t="n">
+        <v>174</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +26202,19 @@
         <v>31858.25748638318</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="J773" t="n">
+        <v>174</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +26243,19 @@
         <v>31858.25748638318</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="J774" t="n">
+        <v>174</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25960,11 +26284,19 @@
         <v>31858.25748638318</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="J775" t="n">
+        <v>174</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25993,11 +26325,19 @@
         <v>31835.14118638317</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="J776" t="n">
+        <v>174</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26026,11 +26366,19 @@
         <v>31835.14118638317</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="J777" t="n">
+        <v>174</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26407,19 @@
         <v>31838.92718638317</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="J778" t="n">
+        <v>174</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +26448,19 @@
         <v>31838.92718638317</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="J779" t="n">
+        <v>174</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26489,19 @@
         <v>31299.12028638317</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="J780" t="n">
+        <v>174</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26530,19 @@
         <v>31137.19608638317</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="J781" t="n">
+        <v>174</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26571,19 @@
         <v>24310.20188638317</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>172</v>
+      </c>
+      <c r="J782" t="n">
+        <v>174</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26612,19 @@
         <v>24321.20908638317</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>170</v>
+      </c>
+      <c r="J783" t="n">
+        <v>174</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26653,19 @@
         <v>24321.20908638317</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="J784" t="n">
+        <v>174</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26694,19 @@
         <v>23298.88388638317</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="J785" t="n">
+        <v>174</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26735,19 @@
         <v>23231.88388638317</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>172</v>
+      </c>
+      <c r="J786" t="n">
+        <v>174</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26776,19 @@
         <v>33636.48548638317</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J787" t="n">
+        <v>174</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26817,19 @@
         <v>33379.84048638317</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="J788" t="n">
+        <v>174</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26858,19 @@
         <v>33383.48548638317</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J789" t="n">
+        <v>174</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26899,19 @@
         <v>33383.48548638317</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>173</v>
+      </c>
+      <c r="J790" t="n">
+        <v>174</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26940,19 @@
         <v>33383.48548638317</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>173</v>
+      </c>
+      <c r="J791" t="n">
+        <v>174</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26521,15 +26981,19 @@
         <v>34293.05718638317</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I792" t="n">
         <v>173</v>
       </c>
       <c r="J792" t="n">
-        <v>173</v>
-      </c>
-      <c r="K792" t="inlineStr"/>
+        <v>174</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,17 +27022,17 @@
         <v>54430.17578638317</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I793" t="n">
         <v>173.5</v>
       </c>
       <c r="J793" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L793" t="n">
@@ -26599,17 +27063,17 @@
         <v>54430.17578638317</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I794" t="n">
         <v>174</v>
       </c>
       <c r="J794" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L794" t="n">
@@ -26640,7 +27104,7 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I795" t="n">
         <v>174</v>
@@ -26648,7 +27112,11 @@
       <c r="J795" t="n">
         <v>174</v>
       </c>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26677,15 +27145,17 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>176.3</v>
+      </c>
       <c r="J796" t="n">
         <v>174</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L796" t="n">
@@ -26716,15 +27186,17 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>176.3</v>
+      </c>
       <c r="J797" t="n">
         <v>174</v>
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L797" t="n">
@@ -26755,11 +27227,19 @@
         <v>60753.18018490817</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="J798" t="n">
+        <v>174</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26788,11 +27268,19 @@
         <v>59945.66898490817</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>176.2</v>
+      </c>
+      <c r="J799" t="n">
+        <v>174</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26821,15 +27309,17 @@
         <v>59945.66898490817</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>172.1</v>
       </c>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>174</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L800" t="n">
@@ -26860,12 +27350,14 @@
         <v>71112.24410387318</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>172.1</v>
       </c>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>174</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26899,12 +27391,14 @@
         <v>70580.46760387317</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>174</v>
       </c>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>174</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26938,12 +27432,14 @@
         <v>78000.72506191817</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>171.2</v>
       </c>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>174</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26977,12 +27473,14 @@
         <v>77409.55346191817</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>174</v>
       </c>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>174</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27016,12 +27514,14 @@
         <v>89950.53631755617</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>171.2</v>
       </c>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>174</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27055,12 +27555,14 @@
         <v>91901.85345547617</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>173.8</v>
       </c>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>174</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27094,12 +27596,14 @@
         <v>91901.85345547617</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>173.9</v>
       </c>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>174</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27133,12 +27637,14 @@
         <v>91275.42965547617</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>173.9</v>
       </c>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>174</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27172,12 +27678,14 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>171.6</v>
       </c>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>174</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27211,12 +27719,14 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>173.9</v>
       </c>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>174</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27250,12 +27760,14 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>173.9</v>
       </c>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>174</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27289,12 +27801,14 @@
         <v>92138.51655053017</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>173.9</v>
       </c>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>174</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27328,12 +27842,14 @@
         <v>92235.03753960416</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>171.6</v>
       </c>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>174</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27367,12 +27883,14 @@
         <v>79020.46203960416</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>173.9</v>
       </c>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>174</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27406,12 +27924,14 @@
         <v>68614.52993960415</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I815" t="n">
         <v>171.1</v>
       </c>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>174</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27445,12 +27965,14 @@
         <v>64614.94823960415</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816" t="n">
         <v>171</v>
       </c>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>174</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27462,6 +27984,6 @@
       <c r="M816" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest DAD.xlsx
+++ b/BackTest/2020-01-23 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>315539.359708651</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>365405.933208651</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>389566.533808651</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>389429.135308651</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>389480.234008651</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>385648.682804046</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>383152.624304046</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>456608.7925713589</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>460259.1653713589</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>464361.8250713589</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>442579.2161713589</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>442703.9560713589</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>443703.9560713589</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>434742.618771359</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>434794.987471359</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>439763.962128164</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>440114.628728164</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>433930.8768281639</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>428684.5963281639</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>438776.3491281639</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>442118.5040713589</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>441020.5028713589</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>444759.6923713589</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>441911.007971359</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>432815.7796713589</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>432823.6215713589</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>432296.8354713589</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>425754.5088713589</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>423413.7194713589</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>426554.5437713588</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>427848.5701713588</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>426140.2001713588</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>426912.8942713588</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>430789.7291096178</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>428296.4616096178</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>427836.9267096178</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>427984.5890096178</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>432971.6846096178</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>437491.1517096178</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>437598.9222096178</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>449361.4865096178</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>452790.6116096178</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>452693.9992096178</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>482381.2394679749</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>510084.4730679748</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>502268.7847679749</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>502512.1821679749</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>500061.5720679749</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>499644.8500679749</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>522117.9660679749</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>522476.1121679749</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>520450.9167679748</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>520420.9332679749</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>507811.9747679749</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>507750.2770679749</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>507287.8732679749</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>511191.9797679749</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>513680.198367975</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>512080.970567975</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>502672.7293679749</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>513354.2290679749</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>514197.6215679749</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>523221.2303679749</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>522573.0889679749</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>544737.3829679748</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>576815.2676914247</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>576815.2676914247</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>592235.0035914247</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>638358.9318730567</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>640176.6266730567</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>640186.6266730567</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>636922.2489730567</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>631270.9376730567</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>631307.7245730567</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>633631.5998730566</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>635997.5660730567</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>637809.9243730566</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>624473.8863730567</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>624561.0414730567</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>623905.3776730567</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>620117.7619730567</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>609961.0848730567</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>608768.1982068038</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>598168.0612068038</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>599116.3767068038</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>599116.3767068038</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>600839.4152099658</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>594567.312409966</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>599487.4358099661</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>606877.7158099661</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>564356.967409966</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>564356.967409966</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>564359.467409966</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>564359.467409966</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>557322.983109966</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>557460.231009966</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>562988.864309966</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>562165.9367099659</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>560782.6402099659</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>560785.1402099659</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>560590.2522099658</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>563054.5698099658</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>563054.5698099658</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>563052.0698099658</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>562021.6562099658</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>561946.1562099658</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>533740.5020099658</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>523193.8937099658</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>499909.6167099658</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>503151.3638099658</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>505158.5193099658</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>493657.8317099658</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>473048.9079099658</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>452866.1611099658</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>470919.0359099658</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>470919.0359099658</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>458193.9884099658</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>441133.8564099658</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>441136.4564099658</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>445303.1704099657</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>445603.9445099657</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>447558.2263099657</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>462527.2412472957</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>462494.4812472957</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>459391.8215472957</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>459525.6127472956</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>456738.1652472956</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>453755.9867472957</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>453805.0304472956</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>453805.0304472956</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>453635.9997472956</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>481345.1158448927</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>476650.6681448927</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>476650.6681448927</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>461352.8906021347</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>462609.8417021347</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>459549.4909021347</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>438415.4196021347</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>463281.0370021347</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>463224.6817021347</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>461863.1370021347</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>460782.1474021347</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>467786.3688021347</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>465343.3114021347</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>458171.7141021347</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>444636.3231021347</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>450481.1200021347</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>441718.9550021347</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>453959.4866021348</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>450822.0461021347</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>469537.1958021348</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>469422.5885021348</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>469425.5074021348</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>470396.6380021347</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>470438.7899021347</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>473543.1832021347</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>509462.0314436047</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>509725.5946436047</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>508771.2033436047</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>510971.5392436047</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>452200.9024436047</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>449468.7394436047</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>451852.6188436047</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>450856.8499436047</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>460910.9953436047</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>460223.1728436047</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>462506.4667436047</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>462401.0911436047</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>460478.8186436046</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>457626.0341436046</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>457600.0600436046</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>462968.5679436047</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>463179.5352436047</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>464437.0070436047</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>432868.1476436047</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>412216.6025436047</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>412302.1915436047</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>407798.1416436046</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>353579.6419006885</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>355228.0021006885</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>351479.8711065585</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>352642.1248065585</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>354161.6374000605</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>354247.2215000605</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>348918.7425000604</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>342704.4054000604</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>342209.6305000603</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>345662.2122000603</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>304571.2900318572</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>304576.2900318572</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>304571.7117318572</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>304566.4457318572</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>304126.0212318572</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>303997.3955318572</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -24475,14 +24475,10 @@
         <v>45006.3459998882</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>174</v>
-      </c>
-      <c r="J730" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
@@ -24512,19 +24508,11 @@
         <v>46251.63869988819</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>175.2</v>
-      </c>
-      <c r="J731" t="n">
-        <v>174</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24553,19 +24541,11 @@
         <v>46251.63869988819</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>180</v>
-      </c>
-      <c r="J732" t="n">
-        <v>174</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24594,1996 +24574,1634 @@
         <v>46165.07049988819</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>180</v>
-      </c>
-      <c r="J733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="C734" t="n">
+        <v>175</v>
+      </c>
+      <c r="D734" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="E734" t="n">
+        <v>175</v>
+      </c>
+      <c r="F734" t="n">
+        <v>989.0791</v>
+      </c>
+      <c r="G734" t="n">
+        <v>45175.99139988819</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="C735" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="D735" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="E735" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="F735" t="n">
+        <v>2200.0736</v>
+      </c>
+      <c r="G735" t="n">
+        <v>42975.91779988819</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="C736" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="D736" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="E736" t="n">
         <v>174</v>
       </c>
-      <c r="K733" t="inlineStr">
+      <c r="F736" t="n">
+        <v>1297.4412</v>
+      </c>
+      <c r="G736" t="n">
+        <v>42975.91779988819</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="C737" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="D737" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E737" t="n">
+        <v>174</v>
+      </c>
+      <c r="F737" t="n">
+        <v>11762.5252</v>
+      </c>
+      <c r="G737" t="n">
+        <v>54738.44299988818</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C738" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D738" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E738" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F738" t="n">
+        <v>5116.623103507</v>
+      </c>
+      <c r="G738" t="n">
+        <v>59855.06610339518</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="C739" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D739" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="E739" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="F739" t="n">
+        <v>2000.1854</v>
+      </c>
+      <c r="G739" t="n">
+        <v>57854.88070339518</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C740" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D740" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E740" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="F740" t="n">
+        <v>11339.274296493</v>
+      </c>
+      <c r="G740" t="n">
+        <v>69194.15499988818</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C741" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="D741" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="E741" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F741" t="n">
+        <v>5924.0664</v>
+      </c>
+      <c r="G741" t="n">
+        <v>75118.22139988818</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C742" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D742" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E742" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F742" t="n">
+        <v>183.0183</v>
+      </c>
+      <c r="G742" t="n">
+        <v>74935.20309988818</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C743" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="D743" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="E743" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="F743" t="n">
+        <v>3.507e-06</v>
+      </c>
+      <c r="G743" t="n">
+        <v>74935.20309988818</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C744" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D744" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E744" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="F744" t="n">
+        <v>15</v>
+      </c>
+      <c r="G744" t="n">
+        <v>74950.20309988818</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>177</v>
+      </c>
+      <c r="C745" t="n">
+        <v>177</v>
+      </c>
+      <c r="D745" t="n">
+        <v>177</v>
+      </c>
+      <c r="E745" t="n">
+        <v>177</v>
+      </c>
+      <c r="F745" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G745" t="n">
+        <v>74947.10309988818</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="C746" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="D746" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="E746" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="F746" t="n">
+        <v>73.9132</v>
+      </c>
+      <c r="G746" t="n">
+        <v>74873.18989988818</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="C747" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="D747" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="E747" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="F747" t="n">
+        <v>142.8185</v>
+      </c>
+      <c r="G747" t="n">
+        <v>74873.18989988818</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="C748" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="D748" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="E748" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="F748" t="n">
+        <v>192.572</v>
+      </c>
+      <c r="G748" t="n">
+        <v>74873.18989988818</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="C749" t="n">
+        <v>177</v>
+      </c>
+      <c r="D749" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E749" t="n">
+        <v>177</v>
+      </c>
+      <c r="F749" t="n">
+        <v>209.7626</v>
+      </c>
+      <c r="G749" t="n">
+        <v>75082.95249988818</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C750" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="D750" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E750" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="F750" t="n">
+        <v>81.82940000000001</v>
+      </c>
+      <c r="G750" t="n">
+        <v>75001.12309988818</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="C751" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D751" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="E751" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="F751" t="n">
+        <v>3</v>
+      </c>
+      <c r="G751" t="n">
+        <v>75004.12309988818</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="C752" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="D752" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="E752" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="F752" t="n">
+        <v>3555.6468</v>
+      </c>
+      <c r="G752" t="n">
+        <v>71448.47629988818</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>176</v>
+      </c>
+      <c r="C753" t="n">
+        <v>174</v>
+      </c>
+      <c r="D753" t="n">
+        <v>176</v>
+      </c>
+      <c r="E753" t="n">
+        <v>174</v>
+      </c>
+      <c r="F753" t="n">
+        <v>7120.6608</v>
+      </c>
+      <c r="G753" t="n">
+        <v>64327.81549988818</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="C754" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="D754" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="E754" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="F754" t="n">
+        <v>152.7401</v>
+      </c>
+      <c r="G754" t="n">
+        <v>64480.55559988818</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C755" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="D755" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E755" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F755" t="n">
+        <v>545.2777</v>
+      </c>
+      <c r="G755" t="n">
+        <v>65025.83329988818</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C756" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="D756" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="E756" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F756" t="n">
+        <v>26.6766</v>
+      </c>
+      <c r="G756" t="n">
+        <v>65052.50989988818</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C757" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="D757" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E757" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F757" t="n">
+        <v>9.3352</v>
+      </c>
+      <c r="G757" t="n">
+        <v>65043.17469988818</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="C758" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="D758" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="E758" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="F758" t="n">
+        <v>2794.857462269</v>
+      </c>
+      <c r="G758" t="n">
+        <v>67838.03216215718</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>176</v>
+      </c>
+      <c r="C759" t="n">
+        <v>176</v>
+      </c>
+      <c r="D759" t="n">
+        <v>176</v>
+      </c>
+      <c r="E759" t="n">
+        <v>176</v>
+      </c>
+      <c r="F759" t="n">
+        <v>5352.882</v>
+      </c>
+      <c r="G759" t="n">
+        <v>62485.15016215718</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="C760" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="D760" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="E760" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="F760" t="n">
+        <v>22.001124226</v>
+      </c>
+      <c r="G760" t="n">
+        <v>62507.15128638318</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="C761" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="D761" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="E761" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="F761" t="n">
+        <v>10</v>
+      </c>
+      <c r="G761" t="n">
+        <v>62497.15128638318</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>175</v>
+      </c>
+      <c r="C762" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="D762" t="n">
+        <v>175</v>
+      </c>
+      <c r="E762" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="F762" t="n">
+        <v>462.1059</v>
+      </c>
+      <c r="G762" t="n">
+        <v>62035.04538638318</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="C763" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="D763" t="n">
+        <v>175</v>
+      </c>
+      <c r="E763" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="F763" t="n">
+        <v>21301.0329</v>
+      </c>
+      <c r="G763" t="n">
+        <v>40734.01248638318</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>177</v>
+      </c>
+      <c r="C764" t="n">
+        <v>175</v>
+      </c>
+      <c r="D764" t="n">
+        <v>177</v>
+      </c>
+      <c r="E764" t="n">
+        <v>175</v>
+      </c>
+      <c r="F764" t="n">
+        <v>237.1447</v>
+      </c>
+      <c r="G764" t="n">
+        <v>40971.15718638318</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="C765" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="D765" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="E765" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="F765" t="n">
+        <v>1532.9712</v>
+      </c>
+      <c r="G765" t="n">
+        <v>39438.18598638318</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="C766" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="D766" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="E766" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="F766" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G766" t="n">
+        <v>34438.18598638318</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="C767" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="D767" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="E767" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="F767" t="n">
+        <v>10</v>
+      </c>
+      <c r="G767" t="n">
+        <v>34448.18598638318</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="n">
+        <v>1</v>
+      </c>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>174</v>
+      </c>
+      <c r="C768" t="n">
+        <v>174</v>
+      </c>
+      <c r="D768" t="n">
+        <v>174</v>
+      </c>
+      <c r="E768" t="n">
+        <v>174</v>
+      </c>
+      <c r="F768" t="n">
+        <v>938.5676</v>
+      </c>
+      <c r="G768" t="n">
+        <v>33509.61838638318</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>175</v>
+      </c>
+      <c r="C769" t="n">
+        <v>175</v>
+      </c>
+      <c r="D769" t="n">
+        <v>175</v>
+      </c>
+      <c r="E769" t="n">
+        <v>175</v>
+      </c>
+      <c r="F769" t="n">
+        <v>451</v>
+      </c>
+      <c r="G769" t="n">
+        <v>33960.61838638318</v>
+      </c>
+      <c r="H769" t="n">
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
+      <c r="L769" t="n">
+        <v>1</v>
+      </c>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>175</v>
+      </c>
+      <c r="C770" t="n">
+        <v>174</v>
+      </c>
+      <c r="D770" t="n">
+        <v>175</v>
+      </c>
+      <c r="E770" t="n">
+        <v>174</v>
+      </c>
+      <c r="F770" t="n">
+        <v>2317.6234</v>
+      </c>
+      <c r="G770" t="n">
+        <v>31642.99498638318</v>
+      </c>
+      <c r="H770" t="n">
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="n">
+        <v>1</v>
+      </c>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C771" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D771" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E771" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="F771" t="n">
+        <v>5.9076</v>
+      </c>
+      <c r="G771" t="n">
+        <v>31648.90258638317</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
+      <c r="L771" t="n">
+        <v>1</v>
+      </c>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C772" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="D772" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="E772" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="F772" t="n">
+        <v>294.4294</v>
+      </c>
+      <c r="G772" t="n">
+        <v>31943.33198638317</v>
+      </c>
+      <c r="H772" t="n">
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
+      <c r="L772" t="n">
+        <v>1</v>
+      </c>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C773" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D773" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E773" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="F773" t="n">
+        <v>85.0745</v>
+      </c>
+      <c r="G773" t="n">
+        <v>31858.25748638318</v>
+      </c>
+      <c r="H773" t="n">
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C774" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D774" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E774" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="F774" t="n">
+        <v>786.135977337</v>
+      </c>
+      <c r="G774" t="n">
+        <v>31858.25748638318</v>
+      </c>
+      <c r="H774" t="n">
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="n">
+        <v>1</v>
+      </c>
+      <c r="M774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="C775" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D775" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E775" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="F775" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G775" t="n">
+        <v>31858.25748638318</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
+      <c r="L775" t="n">
+        <v>1</v>
+      </c>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C776" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="D776" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E776" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F776" t="n">
+        <v>23.1163</v>
+      </c>
+      <c r="G776" t="n">
+        <v>31835.14118638317</v>
+      </c>
+      <c r="H776" t="n">
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="n">
+        <v>1</v>
+      </c>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C777" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="D777" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E777" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F777" t="n">
+        <v>17193.6526</v>
+      </c>
+      <c r="G777" t="n">
+        <v>31835.14118638317</v>
+      </c>
+      <c r="H777" t="n">
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="C778" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="D778" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="E778" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="F778" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="G778" t="n">
+        <v>31838.92718638317</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="C779" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="D779" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="E779" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="F779" t="n">
+        <v>311.2849</v>
+      </c>
+      <c r="G779" t="n">
+        <v>31838.92718638317</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="C780" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D780" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="E780" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="F780" t="n">
+        <v>539.8069</v>
+      </c>
+      <c r="G780" t="n">
+        <v>31299.12028638317</v>
+      </c>
+      <c r="H780" t="n">
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>172</v>
+      </c>
+      <c r="C781" t="n">
+        <v>172</v>
+      </c>
+      <c r="D781" t="n">
+        <v>172</v>
+      </c>
+      <c r="E781" t="n">
+        <v>172</v>
+      </c>
+      <c r="F781" t="n">
+        <v>161.9242</v>
+      </c>
+      <c r="G781" t="n">
+        <v>31137.19608638317</v>
+      </c>
+      <c r="H781" t="n">
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>172</v>
+      </c>
+      <c r="C782" t="n">
+        <v>170</v>
+      </c>
+      <c r="D782" t="n">
+        <v>172</v>
+      </c>
+      <c r="E782" t="n">
+        <v>170</v>
+      </c>
+      <c r="F782" t="n">
+        <v>6826.9942</v>
+      </c>
+      <c r="G782" t="n">
+        <v>24310.20188638317</v>
+      </c>
+      <c r="H782" t="n">
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>172</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>175.2</v>
-      </c>
-      <c r="C734" t="n">
-        <v>175</v>
-      </c>
-      <c r="D734" t="n">
-        <v>175.2</v>
-      </c>
-      <c r="E734" t="n">
-        <v>175</v>
-      </c>
-      <c r="F734" t="n">
-        <v>989.0791</v>
-      </c>
-      <c r="G734" t="n">
-        <v>45175.99139988819</v>
-      </c>
-      <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="J734" t="n">
-        <v>174</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="C735" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="D735" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="E735" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="F735" t="n">
-        <v>2200.0736</v>
-      </c>
-      <c r="G735" t="n">
-        <v>42975.91779988819</v>
-      </c>
-      <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>175</v>
-      </c>
-      <c r="J735" t="n">
-        <v>174</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="C736" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="D736" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="E736" t="n">
-        <v>174</v>
-      </c>
-      <c r="F736" t="n">
-        <v>1297.4412</v>
-      </c>
-      <c r="G736" t="n">
-        <v>42975.91779988819</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="J736" t="n">
-        <v>174</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="C737" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="D737" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="E737" t="n">
-        <v>174</v>
-      </c>
-      <c r="F737" t="n">
-        <v>11762.5252</v>
-      </c>
-      <c r="G737" t="n">
-        <v>54738.44299988818</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="J737" t="n">
-        <v>174</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C738" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D738" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E738" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="F738" t="n">
-        <v>5116.623103507</v>
-      </c>
-      <c r="G738" t="n">
-        <v>59855.06610339518</v>
-      </c>
-      <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="J738" t="n">
-        <v>174</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="C739" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="D739" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="E739" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="F739" t="n">
-        <v>2000.1854</v>
-      </c>
-      <c r="G739" t="n">
-        <v>57854.88070339518</v>
-      </c>
-      <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="J739" t="n">
-        <v>174</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C740" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D740" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E740" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="F740" t="n">
-        <v>11339.274296493</v>
-      </c>
-      <c r="G740" t="n">
-        <v>69194.15499988818</v>
-      </c>
-      <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="J740" t="n">
-        <v>174</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C741" t="n">
-        <v>179.7</v>
-      </c>
-      <c r="D741" t="n">
-        <v>179.7</v>
-      </c>
-      <c r="E741" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="F741" t="n">
-        <v>5924.0664</v>
-      </c>
-      <c r="G741" t="n">
-        <v>75118.22139988818</v>
-      </c>
-      <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>174</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C742" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D742" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E742" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="F742" t="n">
-        <v>183.0183</v>
-      </c>
-      <c r="G742" t="n">
-        <v>74935.20309988818</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>174</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="C743" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="D743" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="E743" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="F743" t="n">
-        <v>3.507e-06</v>
-      </c>
-      <c r="G743" t="n">
-        <v>74935.20309988818</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>174</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="C744" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D744" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E744" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="F744" t="n">
-        <v>15</v>
-      </c>
-      <c r="G744" t="n">
-        <v>74950.20309988818</v>
-      </c>
-      <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>174</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>177</v>
-      </c>
-      <c r="C745" t="n">
-        <v>177</v>
-      </c>
-      <c r="D745" t="n">
-        <v>177</v>
-      </c>
-      <c r="E745" t="n">
-        <v>177</v>
-      </c>
-      <c r="F745" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="G745" t="n">
-        <v>74947.10309988818</v>
-      </c>
-      <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>174</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="C746" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="D746" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="E746" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="F746" t="n">
-        <v>73.9132</v>
-      </c>
-      <c r="G746" t="n">
-        <v>74873.18989988818</v>
-      </c>
-      <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>174</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="C747" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="D747" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="E747" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="F747" t="n">
-        <v>142.8185</v>
-      </c>
-      <c r="G747" t="n">
-        <v>74873.18989988818</v>
-      </c>
-      <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>174</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="C748" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="D748" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="E748" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="F748" t="n">
-        <v>192.572</v>
-      </c>
-      <c r="G748" t="n">
-        <v>74873.18989988818</v>
-      </c>
-      <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>174</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>179.8</v>
-      </c>
-      <c r="C749" t="n">
-        <v>177</v>
-      </c>
-      <c r="D749" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E749" t="n">
-        <v>177</v>
-      </c>
-      <c r="F749" t="n">
-        <v>209.7626</v>
-      </c>
-      <c r="G749" t="n">
-        <v>75082.95249988818</v>
-      </c>
-      <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>174</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="C750" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="D750" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E750" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="F750" t="n">
-        <v>81.82940000000001</v>
-      </c>
-      <c r="G750" t="n">
-        <v>75001.12309988818</v>
-      </c>
-      <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>174</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="C751" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="D751" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="E751" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="F751" t="n">
-        <v>3</v>
-      </c>
-      <c r="G751" t="n">
-        <v>75004.12309988818</v>
-      </c>
-      <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>174</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="C752" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="D752" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="E752" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="F752" t="n">
-        <v>3555.6468</v>
-      </c>
-      <c r="G752" t="n">
-        <v>71448.47629988818</v>
-      </c>
-      <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>174</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>176</v>
-      </c>
-      <c r="C753" t="n">
-        <v>174</v>
-      </c>
-      <c r="D753" t="n">
-        <v>176</v>
-      </c>
-      <c r="E753" t="n">
-        <v>174</v>
-      </c>
-      <c r="F753" t="n">
-        <v>7120.6608</v>
-      </c>
-      <c r="G753" t="n">
-        <v>64327.81549988818</v>
-      </c>
-      <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>174</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>174.3</v>
-      </c>
-      <c r="C754" t="n">
-        <v>174.3</v>
-      </c>
-      <c r="D754" t="n">
-        <v>174.3</v>
-      </c>
-      <c r="E754" t="n">
-        <v>174.3</v>
-      </c>
-      <c r="F754" t="n">
-        <v>152.7401</v>
-      </c>
-      <c r="G754" t="n">
-        <v>64480.55559988818</v>
-      </c>
-      <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>174</v>
-      </c>
-      <c r="J754" t="n">
-        <v>174</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C755" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="D755" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="E755" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="F755" t="n">
-        <v>545.2777</v>
-      </c>
-      <c r="G755" t="n">
-        <v>65025.83329988818</v>
-      </c>
-      <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>174.3</v>
-      </c>
-      <c r="J755" t="n">
-        <v>174</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C756" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="D756" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="E756" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="F756" t="n">
-        <v>26.6766</v>
-      </c>
-      <c r="G756" t="n">
-        <v>65052.50989988818</v>
-      </c>
-      <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="J756" t="n">
-        <v>174</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C757" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="D757" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="E757" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="F757" t="n">
-        <v>9.3352</v>
-      </c>
-      <c r="G757" t="n">
-        <v>65043.17469988818</v>
-      </c>
-      <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="J757" t="n">
-        <v>174</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="C758" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="D758" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="E758" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="F758" t="n">
-        <v>2794.857462269</v>
-      </c>
-      <c r="G758" t="n">
-        <v>67838.03216215718</v>
-      </c>
-      <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="J758" t="n">
-        <v>174</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>176</v>
-      </c>
-      <c r="C759" t="n">
-        <v>176</v>
-      </c>
-      <c r="D759" t="n">
-        <v>176</v>
-      </c>
-      <c r="E759" t="n">
-        <v>176</v>
-      </c>
-      <c r="F759" t="n">
-        <v>5352.882</v>
-      </c>
-      <c r="G759" t="n">
-        <v>62485.15016215718</v>
-      </c>
-      <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>174</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="C760" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="D760" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="E760" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="F760" t="n">
-        <v>22.001124226</v>
-      </c>
-      <c r="G760" t="n">
-        <v>62507.15128638318</v>
-      </c>
-      <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>176</v>
-      </c>
-      <c r="J760" t="n">
-        <v>174</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="C761" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="D761" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="E761" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="F761" t="n">
-        <v>10</v>
-      </c>
-      <c r="G761" t="n">
-        <v>62497.15128638318</v>
-      </c>
-      <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>174</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>175</v>
-      </c>
-      <c r="C762" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="D762" t="n">
-        <v>175</v>
-      </c>
-      <c r="E762" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="F762" t="n">
-        <v>462.1059</v>
-      </c>
-      <c r="G762" t="n">
-        <v>62035.04538638318</v>
-      </c>
-      <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>174</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="C763" t="n">
-        <v>174.7</v>
-      </c>
-      <c r="D763" t="n">
-        <v>175</v>
-      </c>
-      <c r="E763" t="n">
-        <v>174.7</v>
-      </c>
-      <c r="F763" t="n">
-        <v>21301.0329</v>
-      </c>
-      <c r="G763" t="n">
-        <v>40734.01248638318</v>
-      </c>
-      <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="J763" t="n">
-        <v>174</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>177</v>
-      </c>
-      <c r="C764" t="n">
-        <v>175</v>
-      </c>
-      <c r="D764" t="n">
-        <v>177</v>
-      </c>
-      <c r="E764" t="n">
-        <v>175</v>
-      </c>
-      <c r="F764" t="n">
-        <v>237.1447</v>
-      </c>
-      <c r="G764" t="n">
-        <v>40971.15718638318</v>
-      </c>
-      <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>174.7</v>
-      </c>
-      <c r="J764" t="n">
-        <v>174</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>174.2</v>
-      </c>
-      <c r="C765" t="n">
-        <v>174.2</v>
-      </c>
-      <c r="D765" t="n">
-        <v>174.2</v>
-      </c>
-      <c r="E765" t="n">
-        <v>174.2</v>
-      </c>
-      <c r="F765" t="n">
-        <v>1532.9712</v>
-      </c>
-      <c r="G765" t="n">
-        <v>39438.18598638318</v>
-      </c>
-      <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>175</v>
-      </c>
-      <c r="J765" t="n">
-        <v>174</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="C766" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="D766" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="E766" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="F766" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G766" t="n">
-        <v>34438.18598638318</v>
-      </c>
-      <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>174.2</v>
-      </c>
-      <c r="J766" t="n">
-        <v>174</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>176.8</v>
-      </c>
-      <c r="C767" t="n">
-        <v>176.8</v>
-      </c>
-      <c r="D767" t="n">
-        <v>176.8</v>
-      </c>
-      <c r="E767" t="n">
-        <v>176.8</v>
-      </c>
-      <c r="F767" t="n">
-        <v>10</v>
-      </c>
-      <c r="G767" t="n">
-        <v>34448.18598638318</v>
-      </c>
-      <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="J767" t="n">
-        <v>174</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>174</v>
-      </c>
-      <c r="C768" t="n">
-        <v>174</v>
-      </c>
-      <c r="D768" t="n">
-        <v>174</v>
-      </c>
-      <c r="E768" t="n">
-        <v>174</v>
-      </c>
-      <c r="F768" t="n">
-        <v>938.5676</v>
-      </c>
-      <c r="G768" t="n">
-        <v>33509.61838638318</v>
-      </c>
-      <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>176.8</v>
-      </c>
-      <c r="J768" t="n">
-        <v>174</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L768" t="n">
-        <v>1</v>
-      </c>
-      <c r="M768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>175</v>
-      </c>
-      <c r="C769" t="n">
-        <v>175</v>
-      </c>
-      <c r="D769" t="n">
-        <v>175</v>
-      </c>
-      <c r="E769" t="n">
-        <v>175</v>
-      </c>
-      <c r="F769" t="n">
-        <v>451</v>
-      </c>
-      <c r="G769" t="n">
-        <v>33960.61838638318</v>
-      </c>
-      <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>174</v>
-      </c>
-      <c r="J769" t="n">
-        <v>174</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L769" t="n">
-        <v>1</v>
-      </c>
-      <c r="M769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>175</v>
-      </c>
-      <c r="C770" t="n">
-        <v>174</v>
-      </c>
-      <c r="D770" t="n">
-        <v>175</v>
-      </c>
-      <c r="E770" t="n">
-        <v>174</v>
-      </c>
-      <c r="F770" t="n">
-        <v>2317.6234</v>
-      </c>
-      <c r="G770" t="n">
-        <v>31642.99498638318</v>
-      </c>
-      <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>175</v>
-      </c>
-      <c r="J770" t="n">
-        <v>174</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L770" t="n">
-        <v>1</v>
-      </c>
-      <c r="M770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="C771" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="D771" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="E771" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="F771" t="n">
-        <v>5.9076</v>
-      </c>
-      <c r="G771" t="n">
-        <v>31648.90258638317</v>
-      </c>
-      <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>174</v>
-      </c>
-      <c r="J771" t="n">
-        <v>174</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L771" t="n">
-        <v>1</v>
-      </c>
-      <c r="M771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="C772" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="D772" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="E772" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="F772" t="n">
-        <v>294.4294</v>
-      </c>
-      <c r="G772" t="n">
-        <v>31943.33198638317</v>
-      </c>
-      <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="J772" t="n">
-        <v>174</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
-      <c r="M772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="C773" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="D773" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="E773" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="F773" t="n">
-        <v>85.0745</v>
-      </c>
-      <c r="G773" t="n">
-        <v>31858.25748638318</v>
-      </c>
-      <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="J773" t="n">
-        <v>174</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="C774" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="D774" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="E774" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="F774" t="n">
-        <v>786.135977337</v>
-      </c>
-      <c r="G774" t="n">
-        <v>31858.25748638318</v>
-      </c>
-      <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="J774" t="n">
-        <v>174</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="C775" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="D775" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="E775" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="F775" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G775" t="n">
-        <v>31858.25748638318</v>
-      </c>
-      <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="J775" t="n">
-        <v>174</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L775" t="n">
-        <v>1</v>
-      </c>
-      <c r="M775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C776" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="D776" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="E776" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="F776" t="n">
-        <v>23.1163</v>
-      </c>
-      <c r="G776" t="n">
-        <v>31835.14118638317</v>
-      </c>
-      <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>176.5</v>
-      </c>
-      <c r="J776" t="n">
-        <v>174</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L776" t="n">
-        <v>1</v>
-      </c>
-      <c r="M776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="C777" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="D777" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="E777" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="F777" t="n">
-        <v>17193.6526</v>
-      </c>
-      <c r="G777" t="n">
-        <v>31835.14118638317</v>
-      </c>
-      <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="J777" t="n">
-        <v>174</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="C778" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="D778" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="E778" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="F778" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="G778" t="n">
-        <v>31838.92718638317</v>
-      </c>
-      <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="J778" t="n">
-        <v>174</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="C779" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="D779" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="E779" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="F779" t="n">
-        <v>311.2849</v>
-      </c>
-      <c r="G779" t="n">
-        <v>31838.92718638317</v>
-      </c>
-      <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="J779" t="n">
-        <v>174</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="C780" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="D780" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="E780" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="F780" t="n">
-        <v>539.8069</v>
-      </c>
-      <c r="G780" t="n">
-        <v>31299.12028638317</v>
-      </c>
-      <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="J780" t="n">
-        <v>174</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>172</v>
-      </c>
-      <c r="C781" t="n">
-        <v>172</v>
-      </c>
-      <c r="D781" t="n">
-        <v>172</v>
-      </c>
-      <c r="E781" t="n">
-        <v>172</v>
-      </c>
-      <c r="F781" t="n">
-        <v>161.9242</v>
-      </c>
-      <c r="G781" t="n">
-        <v>31137.19608638317</v>
-      </c>
-      <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="J781" t="n">
-        <v>174</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>172</v>
-      </c>
-      <c r="C782" t="n">
-        <v>170</v>
-      </c>
-      <c r="D782" t="n">
-        <v>172</v>
-      </c>
-      <c r="E782" t="n">
-        <v>170</v>
-      </c>
-      <c r="F782" t="n">
-        <v>6826.9942</v>
-      </c>
-      <c r="G782" t="n">
-        <v>24310.20188638317</v>
-      </c>
-      <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>172</v>
-      </c>
-      <c r="J782" t="n">
-        <v>174</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26617,9 +26235,7 @@
       <c r="I783" t="n">
         <v>170</v>
       </c>
-      <c r="J783" t="n">
-        <v>174</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26658,9 +26274,7 @@
       <c r="I784" t="n">
         <v>173.3</v>
       </c>
-      <c r="J784" t="n">
-        <v>174</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26694,14 +26308,10 @@
         <v>23298.88388638317</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="J785" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26735,14 +26345,10 @@
         <v>23231.88388638317</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>172</v>
-      </c>
-      <c r="J786" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26776,14 +26382,10 @@
         <v>33636.48548638317</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="J787" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26817,14 +26419,10 @@
         <v>33379.84048638317</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="J788" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26863,9 +26461,7 @@
       <c r="I789" t="n">
         <v>171.9</v>
       </c>
-      <c r="J789" t="n">
-        <v>174</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26904,9 +26500,7 @@
       <c r="I790" t="n">
         <v>173</v>
       </c>
-      <c r="J790" t="n">
-        <v>174</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26945,9 +26539,7 @@
       <c r="I791" t="n">
         <v>173</v>
       </c>
-      <c r="J791" t="n">
-        <v>174</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26986,9 +26578,7 @@
       <c r="I792" t="n">
         <v>173</v>
       </c>
-      <c r="J792" t="n">
-        <v>174</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27027,9 +26617,7 @@
       <c r="I793" t="n">
         <v>173.5</v>
       </c>
-      <c r="J793" t="n">
-        <v>174</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27068,9 +26656,7 @@
       <c r="I794" t="n">
         <v>174</v>
       </c>
-      <c r="J794" t="n">
-        <v>174</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27104,14 +26690,10 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>174</v>
-      </c>
-      <c r="J795" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27145,14 +26727,10 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="J796" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27186,14 +26764,10 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="J797" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27227,14 +26801,10 @@
         <v>60753.18018490817</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="J798" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27268,14 +26838,10 @@
         <v>59945.66898490817</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>176.2</v>
-      </c>
-      <c r="J799" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27314,9 +26880,7 @@
       <c r="I800" t="n">
         <v>172.1</v>
       </c>
-      <c r="J800" t="n">
-        <v>174</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27355,9 +26919,7 @@
       <c r="I801" t="n">
         <v>172.1</v>
       </c>
-      <c r="J801" t="n">
-        <v>174</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27396,9 +26958,7 @@
       <c r="I802" t="n">
         <v>174</v>
       </c>
-      <c r="J802" t="n">
-        <v>174</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27437,9 +26997,7 @@
       <c r="I803" t="n">
         <v>171.2</v>
       </c>
-      <c r="J803" t="n">
-        <v>174</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27478,9 +27036,7 @@
       <c r="I804" t="n">
         <v>174</v>
       </c>
-      <c r="J804" t="n">
-        <v>174</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27519,9 +27075,7 @@
       <c r="I805" t="n">
         <v>171.2</v>
       </c>
-      <c r="J805" t="n">
-        <v>174</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27560,9 +27114,7 @@
       <c r="I806" t="n">
         <v>173.8</v>
       </c>
-      <c r="J806" t="n">
-        <v>174</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27601,9 +27153,7 @@
       <c r="I807" t="n">
         <v>173.9</v>
       </c>
-      <c r="J807" t="n">
-        <v>174</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27642,9 +27192,7 @@
       <c r="I808" t="n">
         <v>173.9</v>
       </c>
-      <c r="J808" t="n">
-        <v>174</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27683,9 +27231,7 @@
       <c r="I809" t="n">
         <v>171.6</v>
       </c>
-      <c r="J809" t="n">
-        <v>174</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27724,9 +27270,7 @@
       <c r="I810" t="n">
         <v>173.9</v>
       </c>
-      <c r="J810" t="n">
-        <v>174</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27765,9 +27309,7 @@
       <c r="I811" t="n">
         <v>173.9</v>
       </c>
-      <c r="J811" t="n">
-        <v>174</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27806,9 +27348,7 @@
       <c r="I812" t="n">
         <v>173.9</v>
       </c>
-      <c r="J812" t="n">
-        <v>174</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27847,9 +27387,7 @@
       <c r="I813" t="n">
         <v>171.6</v>
       </c>
-      <c r="J813" t="n">
-        <v>174</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27888,9 +27426,7 @@
       <c r="I814" t="n">
         <v>173.9</v>
       </c>
-      <c r="J814" t="n">
-        <v>174</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27929,9 +27465,7 @@
       <c r="I815" t="n">
         <v>171.1</v>
       </c>
-      <c r="J815" t="n">
-        <v>174</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27970,9 +27504,7 @@
       <c r="I816" t="n">
         <v>171</v>
       </c>
-      <c r="J816" t="n">
-        <v>174</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27984,6 +27516,6 @@
       <c r="M816" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest DAD.xlsx
+++ b/BackTest/2020-01-23 BackTest DAD.xlsx
@@ -451,7 +451,7 @@
         <v>315539.359708651</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>365405.933208651</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>389566.533808651</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>389429.135308651</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>389480.234008651</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>385648.682804046</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>383152.624304046</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>399028.616096754</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>453003.9889713589</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>456608.7925713589</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>460259.1653713589</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>461259.1653713589</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>464361.8250713589</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>442579.2161713589</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>442703.9560713589</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>443703.9560713589</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>440635.412471359</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>434742.618771359</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>434794.987471359</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>439763.962128164</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>440114.628728164</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>436594.9827281639</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>433930.8768281639</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>428684.5963281639</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>438776.3491281639</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>442696.5985713589</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>442118.5040713589</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>441020.5028713589</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>445420.5023713589</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>444759.6923713589</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>444635.6458713589</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>441911.007971359</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>432815.7796713589</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>432823.6215713589</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>432296.8354713589</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>425754.5088713589</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>423413.7194713589</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>426554.5437713588</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>427848.5701713588</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>427628.9167713588</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>426140.2001713588</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>426912.8942713588</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>427685.5883713589</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>427697.2717713588</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>430789.7291096178</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>430786.7291096178</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>428248.7911096178</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>428296.4616096178</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>427836.9267096178</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>427984.5890096178</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>432971.6846096178</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>439800.8637096178</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>437491.1517096178</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>437598.9222096178</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>449361.4865096178</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>452790.6116096178</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>452693.9992096178</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>468987.4812096179</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>482381.2394679749</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>510084.4730679748</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>502268.7847679749</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>502512.1821679749</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>504047.8097679749</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>500061.5720679749</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>499644.8500679749</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>522117.9660679749</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>522476.1121679749</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>520450.9167679748</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>520420.9332679749</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>507811.9747679749</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>507659.0291679749</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>507750.2770679749</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>507287.8732679749</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>513924.759567975</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>511191.9797679749</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>513680.198367975</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>512080.970567975</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>505123.6600679749</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>502672.7293679749</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>513354.2290679749</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>514197.6215679749</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>521298.5383679749</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>523221.2303679749</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>522573.0889679749</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>527116.1027679748</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>525090.9072679748</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>544591.3354679748</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>544737.3829679748</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>554431.1546679748</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>563948.4761679748</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>568363.7938679748</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>576351.9962914247</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>569486.2436914247</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>592235.0035914247</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>641203.1927914247</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>638358.9318730567</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>640176.6266730567</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>640186.6266730567</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>636811.4335730567</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>636922.2489730567</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>631270.9376730567</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>631307.7245730567</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>633631.5998730566</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>635997.5660730567</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>635565.5660730567</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>637809.9243730566</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>636686.9502730566</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>624473.8863730567</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>624785.2578730567</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>624561.0414730567</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>623905.3776730567</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>620117.7619730567</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>609961.0848730567</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>609964.0848730567</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>606343.0223730567</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>606346.0223730567</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>596414.2506730567</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>610126.8544068037</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>608768.1982068038</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>600967.8931068038</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>598168.0612068038</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>600169.8986099658</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>441718.9550021347</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>453959.4866021348</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>450822.0461021347</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>469537.1958021348</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>469422.5885021348</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>469425.5074021348</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>470396.6380021347</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>470438.7899021347</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>473543.1832021347</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>509462.0314436047</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>509725.5946436047</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>508771.2033436047</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>508516.7376436047</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>510971.5392436047</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>452200.9024436047</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>449468.7394436047</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>451852.6188436047</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>450856.8499436047</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>458653.1136436047</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>460910.9953436047</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>460223.1728436047</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>462506.4667436047</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>462401.0911436047</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>460478.8186436046</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>455347.3221436046</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>457315.1142436047</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>454993.3029436046</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>457626.0341436046</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>457600.0600436046</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>462968.5679436047</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>463179.5352436047</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>464411.0329436047</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>463707.6611436047</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>463725.6490436047</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>463700.6490436047</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>411731.1456436046</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>407798.1416436046</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>353579.6419006885</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>355228.0021006885</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>350603.7346006885</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>350618.3782065585</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>351479.8711065585</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>352804.8567065586</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>352642.1248065585</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>354161.6374000605</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>354247.2215000605</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>345791.0660000605</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>348918.7425000604</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>344266.3336000604</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>342568.5488000604</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>342580.3245000603</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>342704.4054000604</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>342209.6305000603</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>345662.2122000603</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>306851.5499318572</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>304571.2900318572</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>304576.2900318572</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>304571.7117318572</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>304566.4457318572</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>304126.0212318572</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>304156.0212318572</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>303997.3955318572</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -26191,206 +26191,208 @@
         <v>24310.20188638317</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="C783" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="D783" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="E783" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="F783" t="n">
+        <v>11.0072</v>
+      </c>
+      <c r="G783" t="n">
+        <v>24321.20908638317</v>
+      </c>
+      <c r="H783" t="n">
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>170</v>
+      </c>
+      <c r="J783" t="n">
+        <v>170</v>
+      </c>
+      <c r="K783" t="inlineStr"/>
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="C784" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="D784" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="E784" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="F784" t="n">
+        <v>3</v>
+      </c>
+      <c r="G784" t="n">
+        <v>24321.20908638317</v>
+      </c>
+      <c r="H784" t="n">
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="J784" t="n">
+        <v>170</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L784" t="n">
+        <v>1</v>
+      </c>
+      <c r="M784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>171</v>
+      </c>
+      <c r="C785" t="n">
         <v>172</v>
       </c>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
+      <c r="D785" t="n">
+        <v>172</v>
+      </c>
+      <c r="E785" t="n">
+        <v>171</v>
+      </c>
+      <c r="F785" t="n">
+        <v>1022.3252</v>
+      </c>
+      <c r="G785" t="n">
+        <v>23298.88388638317</v>
+      </c>
+      <c r="H785" t="n">
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="J785" t="n">
+        <v>170</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L785" t="n">
+        <v>1</v>
+      </c>
+      <c r="M785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="C786" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="D786" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="E786" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="F786" t="n">
+        <v>67</v>
+      </c>
+      <c r="G786" t="n">
+        <v>23231.88388638317</v>
+      </c>
+      <c r="H786" t="n">
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>172</v>
+      </c>
+      <c r="J786" t="n">
+        <v>172</v>
+      </c>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="n">
+        <v>1</v>
+      </c>
+      <c r="M786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>172</v>
+      </c>
+      <c r="C787" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D787" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="E787" t="n">
+        <v>172</v>
+      </c>
+      <c r="F787" t="n">
+        <v>10404.6016</v>
+      </c>
+      <c r="G787" t="n">
+        <v>33636.48548638317</v>
+      </c>
+      <c r="H787" t="n">
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="J787" t="n">
+        <v>172</v>
+      </c>
+      <c r="K787" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>173.4</v>
-      </c>
-      <c r="C783" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="D783" t="n">
-        <v>173.4</v>
-      </c>
-      <c r="E783" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="F783" t="n">
-        <v>11.0072</v>
-      </c>
-      <c r="G783" t="n">
-        <v>24321.20908638317</v>
-      </c>
-      <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>170</v>
-      </c>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="C784" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="D784" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="E784" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="F784" t="n">
-        <v>3</v>
-      </c>
-      <c r="G784" t="n">
-        <v>24321.20908638317</v>
-      </c>
-      <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>1</v>
-      </c>
-      <c r="M784" t="inlineStr"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>171</v>
-      </c>
-      <c r="C785" t="n">
-        <v>172</v>
-      </c>
-      <c r="D785" t="n">
-        <v>172</v>
-      </c>
-      <c r="E785" t="n">
-        <v>171</v>
-      </c>
-      <c r="F785" t="n">
-        <v>1022.3252</v>
-      </c>
-      <c r="G785" t="n">
-        <v>23298.88388638317</v>
-      </c>
-      <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L785" t="n">
-        <v>1</v>
-      </c>
-      <c r="M785" t="inlineStr"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="C786" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="D786" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="E786" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="F786" t="n">
-        <v>67</v>
-      </c>
-      <c r="G786" t="n">
-        <v>23231.88388638317</v>
-      </c>
-      <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>172</v>
-      </c>
-      <c r="C787" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="D787" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="E787" t="n">
-        <v>172</v>
-      </c>
-      <c r="F787" t="n">
-        <v>10404.6016</v>
-      </c>
-      <c r="G787" t="n">
-        <v>33636.48548638317</v>
-      </c>
-      <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26419,10 +26421,14 @@
         <v>33379.84048638317</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="J788" t="n">
+        <v>172</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26461,7 +26467,9 @@
       <c r="I789" t="n">
         <v>171.9</v>
       </c>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>172</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26500,7 +26508,9 @@
       <c r="I790" t="n">
         <v>173</v>
       </c>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>172</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26539,7 +26549,9 @@
       <c r="I791" t="n">
         <v>173</v>
       </c>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>172</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26578,7 +26590,9 @@
       <c r="I792" t="n">
         <v>173</v>
       </c>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>172</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26617,7 +26631,9 @@
       <c r="I793" t="n">
         <v>173.5</v>
       </c>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>172</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26656,7 +26672,9 @@
       <c r="I794" t="n">
         <v>174</v>
       </c>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>172</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26690,10 +26708,14 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>174</v>
+      </c>
+      <c r="J795" t="n">
+        <v>172</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26727,10 +26749,14 @@
         <v>61688.20288638317</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="J796" t="n">
+        <v>172</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26767,7 +26793,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>172</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26804,7 +26832,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>172</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26841,7 +26871,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>172</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26880,7 +26912,9 @@
       <c r="I800" t="n">
         <v>172.1</v>
       </c>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>172</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26919,7 +26953,9 @@
       <c r="I801" t="n">
         <v>172.1</v>
       </c>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>172</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26958,7 +26994,9 @@
       <c r="I802" t="n">
         <v>174</v>
       </c>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>172</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26997,7 +27035,9 @@
       <c r="I803" t="n">
         <v>171.2</v>
       </c>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>172</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27036,7 +27076,9 @@
       <c r="I804" t="n">
         <v>174</v>
       </c>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>172</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27075,7 +27117,9 @@
       <c r="I805" t="n">
         <v>171.2</v>
       </c>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>172</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27114,7 +27158,9 @@
       <c r="I806" t="n">
         <v>173.8</v>
       </c>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>172</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27153,7 +27199,9 @@
       <c r="I807" t="n">
         <v>173.9</v>
       </c>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>172</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27192,7 +27240,9 @@
       <c r="I808" t="n">
         <v>173.9</v>
       </c>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>172</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27231,7 +27281,9 @@
       <c r="I809" t="n">
         <v>171.6</v>
       </c>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>172</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27270,7 +27322,9 @@
       <c r="I810" t="n">
         <v>173.9</v>
       </c>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>172</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27304,12 +27358,12 @@
         <v>92240.69705053017</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>173.9</v>
-      </c>
-      <c r="J811" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>172</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27343,12 +27397,12 @@
         <v>92138.51655053017</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>173.9</v>
-      </c>
-      <c r="J812" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>172</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27387,7 +27441,9 @@
       <c r="I813" t="n">
         <v>171.6</v>
       </c>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>172</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27421,12 +27477,12 @@
         <v>79020.46203960416</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>173.9</v>
-      </c>
-      <c r="J814" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>172</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27465,7 +27521,9 @@
       <c r="I815" t="n">
         <v>171.1</v>
       </c>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>172</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27504,7 +27562,9 @@
       <c r="I816" t="n">
         <v>171</v>
       </c>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>172</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
